--- a/SPO/lr2/table.xlsx
+++ b/SPO/lr2/table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_dod\source\repos\Mutabona\4Semestr\SPO\lr2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodo2\source\repos\Mutabona\4Semestr\SPO\lr2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD1FBDB-AD4B-488F-AB6A-000408C7F77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="21816"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>H</t>
   </si>
@@ -61,12 +60,15 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>S7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,16 +379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -400,7 +402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -414,7 +416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -422,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -430,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -441,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -452,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -460,12 +462,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
